--- a/biology/Médecine/Pharmacie_franciscaine_de_Dubrovnik/Pharmacie_franciscaine_de_Dubrovnik.xlsx
+++ b/biology/Médecine/Pharmacie_franciscaine_de_Dubrovnik/Pharmacie_franciscaine_de_Dubrovnik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie franciscaine de « Male Brace » fondée dans le couvent franciscain de Dubrovnik en 1360 est la plus ancienne pharmacie d'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie avait pour fonction de soigner la population et les moines (le VIe chapitre de la règle des Franciscains demande aux frères de soigner les frères malades) et servait aussi de source de revenus aux moines.
 </t>
@@ -542,7 +556,9 @@
           <t>Aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit musée du monastère expose ce qui subsiste de la pharmacie : tableaux du XVe siècle, manuscrits, pots à pharmacie, instruments, récipients...
 La pharmacie est restée en activité, et on y vend toujours des médicaments, crèmes ou potions, inspirées des recettes d'autrefois.
